--- a/data/trans_orig/P1406-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7ADDC35-6020-439E-924C-CE60E29B741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF658E9-1CBB-4A04-AF79-53D130BBB24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E76D3CF1-5C86-4998-AEF7-8E8494827767}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A685D6D3-B09F-4F6C-B6E4-BF45A6A1C30E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="229">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,595 +94,580 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
   </si>
   <si>
     <t>99,37%</t>
@@ -1151,7 +1136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464CEF6-2073-44FC-9081-1A5A3A5B339E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16DCA2C-E98C-43AA-AB03-D0D1F72ADC27}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1771,10 +1756,10 @@
         <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,7 +1777,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -1804,13 +1789,13 @@
         <v>704537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>1310</v>
@@ -1819,13 +1804,13 @@
         <v>1384585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,7 +1866,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1899,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1914,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1929,7 +1914,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1929,13 @@
         <v>14694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1962,10 +1947,10 @@
         <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -1974,13 +1959,13 @@
         <v>23160</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +1980,13 @@
         <v>599923</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>531</v>
@@ -2153,10 +2138,10 @@
         <v>83</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -2165,13 +2150,13 @@
         <v>10700</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -2180,13 +2165,13 @@
         <v>16073</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2186,13 @@
         <v>424056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="H22" s="7">
         <v>396</v>
@@ -2216,13 +2201,13 @@
         <v>437100</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>784</v>
@@ -2231,13 +2216,13 @@
         <v>861156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,7 +2278,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2311,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2341,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2341,13 @@
         <v>15883</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2371,13 +2356,13 @@
         <v>17126</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -2386,13 +2371,13 @@
         <v>33010</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2392,13 @@
         <v>543754</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H26" s="7">
         <v>677</v>
@@ -2422,13 +2407,13 @@
         <v>724666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>1166</v>
@@ -2437,13 +2422,13 @@
         <v>1268419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2532,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2547,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2547,13 @@
         <v>40572</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -2577,13 +2562,13 @@
         <v>43119</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>77</v>
@@ -2592,13 +2577,13 @@
         <v>83691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2598,13 @@
         <v>3386207</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="H30" s="7">
         <v>3256</v>
@@ -2628,13 +2613,13 @@
         <v>3510797</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="M30" s="7">
         <v>6427</v>
@@ -2643,13 +2628,13 @@
         <v>6897003</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,7 +2690,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2727,7 +2712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A71F45-3CC3-4AA5-99C4-7799FC9EF73A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C45DE2-0C6C-49E9-9FEF-6CFD20D54CF2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2744,7 +2729,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2917,13 +2902,13 @@
         <v>1992</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2956,7 +2941,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -2968,10 +2953,10 @@
         <v>393763</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -2983,10 +2968,10 @@
         <v>813226</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -3078,7 +3063,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3093,7 +3078,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3093,13 @@
         <v>1369</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3123,13 +3108,13 @@
         <v>2814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3138,13 +3123,13 @@
         <v>4182</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,10 +3144,10 @@
         <v>589127</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -3174,13 +3159,13 @@
         <v>560730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>1142</v>
@@ -3189,13 +3174,13 @@
         <v>1149858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3317,10 +3302,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3335,7 +3320,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3344,13 +3329,13 @@
         <v>4924</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3350,13 @@
         <v>666098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -3380,10 +3365,10 @@
         <v>659461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3395,13 +3380,13 @@
         <v>1325559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,7 +3442,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3475,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3490,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3505,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3535,13 +3520,13 @@
         <v>3662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3550,13 +3535,13 @@
         <v>6551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,10 +3556,10 @@
         <v>643159</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -3586,28 +3571,28 @@
         <v>645415</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M18" s="7">
         <v>1179</v>
       </c>
       <c r="N18" s="7">
-        <v>1288574</v>
+        <v>1288575</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,7 +3634,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>31</v>
@@ -3696,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3726,13 +3711,13 @@
         <v>3333</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -3741,13 +3726,13 @@
         <v>8670</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -3756,13 +3741,13 @@
         <v>12003</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,10 +3762,10 @@
         <v>474585</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>179</v>
@@ -3795,10 +3780,10 @@
         <v>180</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M22" s="7">
         <v>846</v>
@@ -3869,7 +3854,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3935,7 +3920,7 @@
         <v>185</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>186</v>
@@ -3950,10 +3935,10 @@
         <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -3962,13 +3947,13 @@
         <v>19863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3968,13 @@
         <v>586668</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="H26" s="7">
         <v>642</v>
@@ -4004,7 +3989,7 @@
         <v>196</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>1264</v>
@@ -4013,13 +3998,13 @@
         <v>1349396</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4108,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4123,7 +4108,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,7 +4126,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>201</v>
@@ -4153,13 +4138,13 @@
         <v>34266</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -4171,10 +4156,10 @@
         <v>47</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4174,13 @@
         <v>3379101</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="H30" s="7">
         <v>3307</v>
@@ -4204,13 +4189,13 @@
         <v>3510276</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>6524</v>
@@ -4219,13 +4204,13 @@
         <v>6889377</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4266,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4303,7 +4288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6429B91-B351-4052-A4B4-928F14994B0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5CE190-4CD9-44F6-8A40-6C375D5533D2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4320,7 +4305,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4430,7 +4415,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>31</v>
@@ -4445,7 +4430,7 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
@@ -4460,7 +4445,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>31</v>
@@ -4484,7 +4469,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4499,7 +4484,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4514,7 +4499,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,7 +4520,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4550,7 +4535,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4565,7 +4550,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,7 +4621,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>31</v>
@@ -4666,7 +4651,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>31</v>
@@ -4690,7 +4675,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4720,7 +4705,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4726,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4771,7 +4756,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,7 +4827,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>31</v>
@@ -4857,7 +4842,7 @@
         <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -4896,7 +4881,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4911,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4947,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4962,7 +4947,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5033,7 +5018,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5048,7 +5033,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>31</v>
@@ -5063,7 +5048,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -5072,13 +5057,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>31</v>
@@ -5117,7 +5102,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5132,7 +5117,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,7 +5153,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5183,7 +5168,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,7 +5210,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>31</v>
@@ -5254,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>31</v>
@@ -5269,7 +5254,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>31</v>
@@ -5284,7 +5269,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>31</v>
@@ -5323,7 +5308,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5338,7 +5323,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,7 +5359,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5389,7 +5374,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5430,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5454,13 +5439,13 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>31</v>
@@ -5475,7 +5460,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>31</v>
@@ -5490,7 +5475,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>31</v>
@@ -5514,7 +5499,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5529,7 +5514,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5544,7 +5529,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,7 +5550,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5580,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5595,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5592,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>31</v>
@@ -5666,7 +5651,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>31</v>
@@ -5681,7 +5666,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>31</v>
@@ -5690,13 +5675,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>31</v>
@@ -5720,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5735,7 +5720,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5750,7 +5735,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5786,7 +5771,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5801,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,7 +5828,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>31</v>
@@ -5857,7 +5842,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1406-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF658E9-1CBB-4A04-AF79-53D130BBB24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91964289-8378-43D4-A7BF-1C1BE1998186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A685D6D3-B09F-4F6C-B6E4-BF45A6A1C30E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C901CDB7-090E-4780-9BF1-291AA4F0FB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="234">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,45 +94,45 @@
     <t>0,21%</t>
   </si>
   <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -151,535 +151,550 @@
     <t>0,27%</t>
   </si>
   <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,14%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
     <t>0,92%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
     <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -1136,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16DCA2C-E98C-43AA-AB03-D0D1F72ADC27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C79D18-2545-49A1-8F0E-53FD4707001E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1741,10 +1756,10 @@
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1753,13 +1768,13 @@
         <v>6852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,7 +1792,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -1789,13 +1804,13 @@
         <v>704537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>1310</v>
@@ -1804,13 +1819,13 @@
         <v>1384585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,7 +1881,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1884,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1899,7 +1914,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1914,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1944,13 @@
         <v>14694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1944,13 +1959,13 @@
         <v>8466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -1959,13 +1974,13 @@
         <v>23160</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1995,13 @@
         <v>599923</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H18" s="7">
         <v>531</v>
@@ -1995,13 +2010,13 @@
         <v>605798</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M18" s="7">
         <v>1066</v>
@@ -2010,13 +2025,13 @@
         <v>1205720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2087,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2090,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2105,7 +2120,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2120,7 +2135,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2150,13 @@
         <v>5373</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -2150,13 +2165,13 @@
         <v>10700</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -2165,13 +2180,13 @@
         <v>16073</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2201,13 @@
         <v>424056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>396</v>
@@ -2201,13 +2216,13 @@
         <v>437100</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M22" s="7">
         <v>784</v>
@@ -2216,13 +2231,13 @@
         <v>861156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,7 +2293,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2296,7 +2311,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2311,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2326,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2356,13 @@
         <v>15883</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2356,13 +2371,13 @@
         <v>17126</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -2371,13 +2386,13 @@
         <v>33010</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2407,13 @@
         <v>543754</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H26" s="7">
         <v>677</v>
@@ -2407,13 +2422,13 @@
         <v>724666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M26" s="7">
         <v>1166</v>
@@ -2422,13 +2437,13 @@
         <v>1268419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2517,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2532,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2562,13 @@
         <v>40572</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -2562,13 +2577,13 @@
         <v>43119</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>77</v>
@@ -2577,13 +2592,13 @@
         <v>83691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2613,13 @@
         <v>3386207</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>3256</v>
@@ -2613,13 +2628,13 @@
         <v>3510797</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>6427</v>
@@ -2628,13 +2643,13 @@
         <v>6897003</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2705,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +2727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C45DE2-0C6C-49E9-9FEF-6CFD20D54CF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49785EA3-3E95-4DB9-87B1-A50E64D2F5D8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2729,7 +2744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2842,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2857,7 +2872,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2872,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2902,13 +2917,13 @@
         <v>1992</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2917,13 +2932,13 @@
         <v>1992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,7 +2956,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -2953,10 +2968,10 @@
         <v>393763</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -2968,10 +2983,10 @@
         <v>813226</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -3063,22 +3078,22 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3108,13 @@
         <v>1369</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3108,13 +3123,13 @@
         <v>2814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3123,10 +3138,10 @@
         <v>4182</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>37</v>
@@ -3144,10 +3159,10 @@
         <v>589127</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -3159,13 +3174,13 @@
         <v>560730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>1142</v>
@@ -3174,13 +3189,13 @@
         <v>1149858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,7 +3269,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3302,10 +3317,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3332,10 +3347,10 @@
         <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3365,13 @@
         <v>666098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -3365,10 +3380,10 @@
         <v>659461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3380,13 +3395,13 @@
         <v>1325559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,7 +3457,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3460,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3475,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3490,7 +3505,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,7 +3526,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3520,13 +3535,13 @@
         <v>3662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3535,13 +3550,13 @@
         <v>6551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,10 +3571,10 @@
         <v>643159</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -3571,28 +3586,28 @@
         <v>645415</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>1179</v>
       </c>
       <c r="N18" s="7">
-        <v>1288575</v>
+        <v>1288574</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,7 +3649,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>31</v>
@@ -3648,7 +3663,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3681,7 +3696,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3711,13 +3726,13 @@
         <v>3333</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -3726,13 +3741,13 @@
         <v>8670</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -3741,13 +3756,13 @@
         <v>12003</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3777,13 @@
         <v>474585</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H22" s="7">
         <v>425</v>
@@ -3777,13 +3792,13 @@
         <v>488179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>846</v>
@@ -3792,13 +3807,13 @@
         <v>962764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3869,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3917,13 +3932,13 @@
         <v>4660</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -3932,13 +3947,13 @@
         <v>15203</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -3947,13 +3962,13 @@
         <v>19863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3983,13 @@
         <v>586668</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H26" s="7">
         <v>642</v>
@@ -3983,13 +3998,13 @@
         <v>762728</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>1264</v>
@@ -3998,13 +4013,13 @@
         <v>1349396</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4093,7 +4108,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4108,7 +4123,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,7 +4141,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>201</v>
@@ -4138,13 +4153,13 @@
         <v>34266</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -4156,10 +4171,10 @@
         <v>47</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4189,13 @@
         <v>3379101</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>3307</v>
@@ -4189,13 +4204,13 @@
         <v>3510276</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>6524</v>
@@ -4204,13 +4219,13 @@
         <v>6889377</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4281,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4288,7 +4303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5CE190-4CD9-44F6-8A40-6C375D5533D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D24BA06-4FBC-43B6-9737-893D36433707}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4305,7 +4320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4415,7 +4430,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>31</v>
@@ -4430,7 +4445,7 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
@@ -4445,7 +4460,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>31</v>
@@ -4469,7 +4484,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4484,7 +4499,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4499,7 +4514,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,7 +4535,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4535,7 +4550,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4550,7 +4565,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,7 +4636,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>31</v>
@@ -4651,7 +4666,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>31</v>
@@ -4675,7 +4690,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4705,7 +4720,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,7 +4741,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4756,7 +4771,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,7 +4842,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>31</v>
@@ -4842,7 +4857,7 @@
         <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -4881,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4896,7 +4911,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4932,7 +4947,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4947,7 +4962,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5018,7 +5033,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5033,7 +5048,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>31</v>
@@ -5048,7 +5063,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -5063,7 +5078,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>31</v>
@@ -5102,7 +5117,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5117,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5168,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5168,7 +5183,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,7 +5239,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5239,7 +5254,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>31</v>
@@ -5254,7 +5269,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>31</v>
@@ -5269,7 +5284,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>31</v>
@@ -5308,7 +5323,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5323,7 +5338,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,7 +5374,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5374,7 +5389,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,7 +5445,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5445,7 +5460,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>31</v>
@@ -5460,7 +5475,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>31</v>
@@ -5475,7 +5490,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>31</v>
@@ -5499,7 +5514,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5514,7 +5529,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5529,7 +5544,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5565,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5580,7 +5595,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,7 +5666,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>31</v>
@@ -5666,7 +5681,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>31</v>
@@ -5681,7 +5696,7 @@
         <v>26</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>31</v>
@@ -5705,7 +5720,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5720,7 +5735,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5735,7 +5750,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,7 +5771,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5771,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5786,7 +5801,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5857,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1406-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D9AB7A-A8CD-48C3-BF3E-BFBAF2AD936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B2B78FB-1DC3-47D0-9BEE-A137E6567CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A17C5972-7DEB-4A4B-8C54-DAB9BF5BC433}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F23752E2-1405-4678-8D71-C2348CFE16D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="220">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -120,7 +120,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -156,7 +156,7 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,83%</t>
@@ -195,7 +195,7 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,39%</t>
@@ -252,7 +252,7 @@
     <t>98,82%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -291,61 +291,118 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>1,61%</t>
@@ -492,27 +549,15 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
     <t>99,49%</t>
   </si>
   <si>
@@ -558,52 +603,76 @@
     <t>99,34%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -615,15 +684,9 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
     <t>99,25%</t>
   </si>
   <si>
@@ -631,12 +694,6 @@
   </si>
   <si>
     <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
   </si>
   <si>
     <t>99,47%</t>
@@ -1051,8 +1108,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949059FF-3990-459D-B062-D8C96B71427E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C19A38-9912-472E-833B-D4EC29FF5B1A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1944,10 +2001,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>15883</v>
+        <v>4181</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>85</v>
@@ -1959,10 +2016,10 @@
         <v>87</v>
       </c>
       <c r="H19" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>17126</v>
+        <v>6049</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>88</v>
@@ -1974,10 +2031,10 @@
         <v>90</v>
       </c>
       <c r="M19" s="7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>33010</v>
+        <v>10230</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>91</v>
@@ -1995,10 +2052,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>489</v>
+        <v>278</v>
       </c>
       <c r="D20" s="7">
-        <v>543754</v>
+        <v>305605</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>94</v>
@@ -2010,10 +2067,10 @@
         <v>96</v>
       </c>
       <c r="H20" s="7">
-        <v>677</v>
+        <v>338</v>
       </c>
       <c r="I20" s="7">
-        <v>724666</v>
+        <v>347947</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>97</v>
@@ -2025,10 +2082,10 @@
         <v>99</v>
       </c>
       <c r="M20" s="7">
-        <v>1166</v>
+        <v>616</v>
       </c>
       <c r="N20" s="7">
-        <v>1268419</v>
+        <v>653552</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>100</v>
@@ -2046,10 +2103,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -2061,10 +2118,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741792</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -2076,10 +2133,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301429</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2093,55 +2150,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>40572</v>
+        <v>11703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>43119</v>
+        <v>11077</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>83691</v>
+        <v>22780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,49 +2207,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3171</v>
+        <v>211</v>
       </c>
       <c r="D23" s="7">
-        <v>3386207</v>
+        <v>238148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
-        <v>3256</v>
+        <v>339</v>
       </c>
       <c r="I23" s="7">
-        <v>3510797</v>
+        <v>376719</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
-        <v>6427</v>
+        <v>550</v>
       </c>
       <c r="N23" s="7">
-        <v>6897003</v>
+        <v>614867</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,63 +2258,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387796</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637647</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7">
+        <v>40572</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="7">
+        <v>39</v>
+      </c>
+      <c r="I25" s="7">
+        <v>43119</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="7">
+        <v>77</v>
+      </c>
+      <c r="N25" s="7">
+        <v>83691</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3171</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3386207</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3256</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3510797</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6427</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6897003</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553916</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6980694</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2270,8 +2483,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5728948-2815-427E-9E27-0B8C27C8D74C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434397C4-7493-4270-892B-BA534B17C38F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2287,7 +2500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2409,13 +2622,13 @@
         <v>1992</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2424,13 +2637,13 @@
         <v>1992</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,10 +2673,10 @@
         <v>393763</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2475,10 +2688,10 @@
         <v>813226</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2549,13 +2762,13 @@
         <v>1369</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2564,13 +2777,13 @@
         <v>2814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2579,13 +2792,13 @@
         <v>4182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,10 +2813,10 @@
         <v>589127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2615,13 +2828,13 @@
         <v>560730</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>1142</v>
@@ -2630,13 +2843,13 @@
         <v>1149858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2917,13 @@
         <v>2999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2719,13 +2932,13 @@
         <v>1925</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2734,13 +2947,13 @@
         <v>4924</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,10 +2968,10 @@
         <v>666098</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>37</v>
@@ -2770,10 +2983,10 @@
         <v>659461</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2785,13 +2998,13 @@
         <v>1325559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +3072,13 @@
         <v>2889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2874,13 +3087,13 @@
         <v>3662</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2889,10 +3102,10 @@
         <v>6551</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>17</v>
@@ -2910,10 +3123,10 @@
         <v>643159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -2925,13 +3138,13 @@
         <v>645415</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>1179</v>
@@ -2940,13 +3153,13 @@
         <v>1288574</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,10 +3227,10 @@
         <v>3333</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>59</v>
@@ -3029,13 +3242,13 @@
         <v>8670</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3044,13 +3257,13 @@
         <v>12003</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3278,13 @@
         <v>474585</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
         <v>425</v>
@@ -3080,10 +3293,10 @@
         <v>488179</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
@@ -3095,13 +3308,13 @@
         <v>962764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,49 +3376,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>4660</v>
+        <v>2091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>15203</v>
+        <v>6118</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>177</v>
       </c>
       <c r="M19" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>19863</v>
+        <v>8209</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,49 +3427,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>622</v>
+        <v>323</v>
       </c>
       <c r="D20" s="7">
-        <v>586668</v>
+        <v>332239</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
-        <v>642</v>
+        <v>348</v>
       </c>
       <c r="I20" s="7">
-        <v>762728</v>
+        <v>371644</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="M20" s="7">
-        <v>1264</v>
+        <v>671</v>
       </c>
       <c r="N20" s="7">
-        <v>1349396</v>
+        <v>703883</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,10 +3478,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -3280,10 +3493,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -3295,10 +3508,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -3312,55 +3525,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>15249</v>
+        <v>2569</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H22" s="7">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>34266</v>
+        <v>9085</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
+        <v>10</v>
+      </c>
+      <c r="N22" s="7">
+        <v>11654</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N22" s="7">
-        <v>49515</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,49 +3582,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3217</v>
+        <v>299</v>
       </c>
       <c r="D23" s="7">
-        <v>3379101</v>
+        <v>254429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="H23" s="7">
-        <v>3307</v>
+        <v>294</v>
       </c>
       <c r="I23" s="7">
-        <v>3510276</v>
+        <v>391084</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="M23" s="7">
-        <v>6524</v>
+        <v>593</v>
       </c>
       <c r="N23" s="7">
-        <v>6889377</v>
+        <v>645513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>200</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,63 +3633,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>15249</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="7">
+        <v>31</v>
+      </c>
+      <c r="I25" s="7">
+        <v>34266</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="7">
+        <v>45</v>
+      </c>
+      <c r="N25" s="7">
+        <v>49515</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3217</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3379101</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3307</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3510276</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6524</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6889377</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
